--- a/src/assets/campaign-template.xlsx
+++ b/src/assets/campaign-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivek\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mobeo Projects\conversion-portal\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663720C8-F4C1-4338-8121-47BE3B0C9B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29550640-A429-41E6-BD7F-97BBFCAE7E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="228" windowWidth="19284" windowHeight="10968" tabRatio="726" xr2:uid="{423733BD-A7C9-4D95-B6B6-A1410A8413C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="726" xr2:uid="{423733BD-A7C9-4D95-B6B6-A1410A8413C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Template!$A$1:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>StoreId</t>
   </si>
@@ -42,18 +42,9 @@
     <t>Book Appointment</t>
   </si>
   <si>
-    <t>Purchase Link</t>
-  </si>
-  <si>
-    <t>View Sale</t>
-  </si>
-  <si>
     <t>Download a offer</t>
   </si>
   <si>
-    <t>Signup</t>
-  </si>
-  <si>
     <t>Open an account</t>
   </si>
   <si>
@@ -78,13 +69,31 @@
     <t>http://www.apple.com</t>
   </si>
   <si>
-    <t>These are test contents</t>
-  </si>
-  <si>
     <t>content block text</t>
   </si>
   <si>
     <t>http://www.test.com</t>
+  </si>
+  <si>
+    <t>Contact Form</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Shop Online</t>
+  </si>
+  <si>
+    <t>Location Directions</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>id=1</t>
   </si>
 </sst>
 </file>
@@ -148,7 +157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -167,6 +176,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -491,7 +501,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,50 +520,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2"/>
-      <c r="E2"/>
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
       <c r="F2" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -563,20 +577,22 @@
       <c r="B3" s="7"/>
       <c r="C3"/>
       <c r="D3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3"/>
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
       <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -584,18 +600,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4"/>
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
       <c r="G4"/>
       <c r="H4" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I4"/>
     </row>
@@ -608,25 +626,17 @@
     <hyperlink ref="F3" r:id="rId4" xr:uid="{09537471-1B6D-401D-A6F3-BFFC9698978B}"/>
     <hyperlink ref="E4" r:id="rId5" xr:uid="{443AC3E6-CBAA-4598-BB4B-B364333E1745}"/>
     <hyperlink ref="D3" r:id="rId6" xr:uid="{B3D6163D-4529-4454-BAA8-70A8AB19BF68}"/>
-    <hyperlink ref="C4" r:id="rId7" xr:uid="{1C451429-76E8-428D-82F9-31DE7B63DFD1}"/>
-    <hyperlink ref="H2" r:id="rId8" xr:uid="{10AB9AAD-B1ED-414E-87A6-FA7879979CCE}"/>
-    <hyperlink ref="H3" r:id="rId9" xr:uid="{083424A6-096A-40A2-A2EB-3FD471F30AE0}"/>
-    <hyperlink ref="H4" r:id="rId10" xr:uid="{BB7913C8-940D-4B27-9A7E-489CD0D2EA8C}"/>
-    <hyperlink ref="G2" r:id="rId11" xr:uid="{E24D004A-9331-4545-823C-2E8C1F0B5068}"/>
-    <hyperlink ref="G3" r:id="rId12" xr:uid="{D22B39A7-FBE7-44CD-A549-01AE892B739B}"/>
+    <hyperlink ref="C4" r:id="rId7" display="http://www.apple.com" xr:uid="{1C451429-76E8-428D-82F9-31DE7B63DFD1}"/>
+    <hyperlink ref="H4" r:id="rId8" xr:uid="{BB7913C8-940D-4B27-9A7E-489CD0D2EA8C}"/>
+    <hyperlink ref="G2" r:id="rId9" xr:uid="{E24D004A-9331-4545-823C-2E8C1F0B5068}"/>
+    <hyperlink ref="G3" r:id="rId10" xr:uid="{D22B39A7-FBE7-44CD-A549-01AE892B739B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId13"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009288C3A43B568A47A88B438F0FF84E75" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7238dbbf7a7292d3220ea922914a5ab8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3d704c22-d8f3-4bb1-a690-2daff57c3262" xmlns:ns4="7ce58e9e-428c-4f21-9453-c7673e0ec0f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2cea193c4f50546463900ada1a742d84" ns3:_="" ns4:_="">
     <xsd:import namespace="3d704c22-d8f3-4bb1-a690-2daff57c3262"/>
@@ -843,6 +853,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -853,23 +869,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EFB406C-7E04-42C7-A1E2-DCC9A6716D01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="7ce58e9e-428c-4f21-9453-c7673e0ec0f1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="3d704c22-d8f3-4bb1-a690-2daff57c3262"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DA7D7EE-C370-4883-95B2-70352A4F3D2D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -888,6 +887,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EFB406C-7E04-42C7-A1E2-DCC9A6716D01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="7ce58e9e-428c-4f21-9453-c7673e0ec0f1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="3d704c22-d8f3-4bb1-a690-2daff57c3262"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6D6AE0F-EFC2-4781-8483-F559F749974F}">
   <ds:schemaRefs>
